--- a/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -771,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,17 +783,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -802,13 +823,1129 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>274.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2788</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6220</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4539</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4239</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1892,7 +1893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1903,17 +1904,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1923,14 +1944,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.67</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1939,13 +1982,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2443,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2454,17 +2455,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2474,14 +2495,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.47</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2490,14 +2533,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.67</v>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2506,13 +2571,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,317 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1055</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0509</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.47</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009954</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>北信瑞丰优选成长股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.67</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001866</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+      <c r="D5" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -774,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320007</t>
+          <t>002560</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安成长混合</t>
+          <t>诺安和鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>274.08</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12.2788</t>
+          <t>2.6842</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -863,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002560</t>
+          <t>320022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安和鑫灵活配置混合</t>
+          <t>诺安研究精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.72</t>
+          <t>7.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.5915</t>
+          <t>0.2092</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -901,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>004314</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.47</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1164</t>
+          <t>0.0590</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -939,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>004315</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>40.55</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.71</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.6220</t>
+          <t>0.0315</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -977,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.45</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.4539</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1015,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>002564</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>新沃通盈灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.4398</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1053,834 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012491</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商核心引力混合型证券投资基金A</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6822</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000654</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商新锐产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5168</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001914</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>39.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4239</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>320022</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安研究精选股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3588</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3252</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3050</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001072</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安智能装备主题股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2939</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004423</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.51</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2334</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008328</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>诺安新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1952</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006007</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.69</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1937</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>320012</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安主题精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.18</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1547</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.06</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1501</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008635</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华安科技创新混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1296</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011144</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华安汇宏精选混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0930</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005632</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>012492</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华商核心引力混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006008</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.69</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>011145</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华安汇宏精选混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>84.38</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>84.38</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006845</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>39.02</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2495,36 +1477,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002560</t>
+          <t>320007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安和鑫灵活配置混合</t>
+          <t>诺安成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.79</t>
+          <t>274.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6842</t>
+          <t>12.2788</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2533,36 +1515,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320022</t>
+          <t>002560</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安研究精选股票</t>
+          <t>诺安和鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>40.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2092</t>
+          <t>3.5915</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2571,36 +1553,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>60.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0590</t>
+          <t>2.1164</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2609,36 +1591,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004315</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>40.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>46.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>1.6220</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2647,36 +1629,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>005777</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>广发科技动力股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>23.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>1.4539</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2685,36 +1667,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002564</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新沃通盈灵活配置混合</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>1.4398</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2723,36 +1705,834 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>012491</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>华商核心引力混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>88.82</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.6822</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4239</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2766,96 +2546,316 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.47</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.24</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>4.47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>26.67</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -549,6 +566,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012847</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1420,7 +1721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2540,7 +2841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688521-芯原股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.55</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4.47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>26.67</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -566,6 +583,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>248.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2966</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012847</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1171,7 +1510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1721,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2841,7 +3180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
